--- a/Purchase Order (purchase.order).xlsx
+++ b/Purchase Order (purchase.order).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="87">
   <si>
     <t>Priority</t>
   </si>
@@ -46,6 +46,30 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>P00067</t>
+  </si>
+  <si>
+    <t>Indochine Beverage Importers Ltd.</t>
+  </si>
+  <si>
+    <t>Nguyên Sa</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>P00066</t>
+  </si>
+  <si>
+    <t>Hanoi Wine &amp; Spirit Co.</t>
+  </si>
+  <si>
+    <t>P00065</t>
+  </si>
+  <si>
+    <t>FineDrink Global Distribution</t>
+  </si>
+  <si>
     <t>P00064</t>
   </si>
   <si>
@@ -55,30 +79,18 @@
     <t>Yến Ngọc</t>
   </si>
   <si>
-    <t>Purchase Order</t>
-  </si>
-  <si>
     <t>P00063</t>
   </si>
   <si>
-    <t>FineDrink Global Distribution</t>
-  </si>
-  <si>
     <t>P00061</t>
   </si>
   <si>
-    <t>Hanoi Wine &amp; Spirit Co.</t>
-  </si>
-  <si>
     <t>P00060</t>
   </si>
   <si>
     <t>Saigon Beverage Solutions (SBS)</t>
   </si>
   <si>
-    <t>Nguyên Sa</t>
-  </si>
-  <si>
     <t>P00059</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>P00058</t>
-  </si>
-  <si>
-    <t>Indochine Beverage Importers Ltd.</t>
   </si>
   <si>
     <t>P00057</t>
@@ -619,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,12 +680,12 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>46002.45641203703</v>
+        <v>46002.94333333334</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4">
-        <v>18060000</v>
+        <v>649897500</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -696,12 +705,12 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>46002.44210648148</v>
+        <v>46002.94298611111</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="4">
-        <v>32450000</v>
+        <v>527945250</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -721,12 +730,12 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>46002.41052083333</v>
+        <v>46002.94219907407</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4">
-        <v>39806500</v>
+        <v>541825000</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
@@ -746,12 +755,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="3">
-        <v>46001.98964120371</v>
+        <v>46002.45641203703</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="4">
-        <v>752897500</v>
+        <v>18060000</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
@@ -765,18 +774,18 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <v>46001.98916666667</v>
+        <v>46002.44210648148</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="4">
-        <v>874335000</v>
+        <v>32450000</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
@@ -787,21 +796,21 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>46001.9880324074</v>
+        <v>46002.41052083333</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="4">
-        <v>707280000</v>
+        <v>39806500</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
@@ -812,21 +821,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>46000.81516203703</v>
+        <v>46001.98964120371</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4">
-        <v>340937500</v>
+        <v>752897500</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
@@ -837,21 +846,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>46000.81321759259</v>
+        <v>46001.98916666667</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4">
-        <v>935862500</v>
+        <v>874335000</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
@@ -865,18 +874,18 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>46000.81115740741</v>
+        <v>46001.9880324074</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4">
-        <v>404460000</v>
+        <v>707280000</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>13</v>
@@ -890,18 +899,18 @@
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>45998.87412037037</v>
+        <v>46000.81516203703</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="4">
-        <v>526735000</v>
+        <v>340937500</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
@@ -915,18 +924,18 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>45998.87241898148</v>
+        <v>46000.81321759259</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="4">
-        <v>752600000</v>
+        <v>935862500</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>13</v>
@@ -937,21 +946,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>45998.87138888889</v>
+        <v>46000.81115740741</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="4">
-        <v>639922500</v>
+        <v>404460000</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>13</v>
@@ -962,21 +971,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>45997.97175925926</v>
+        <v>45998.87412037037</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="4">
-        <v>759665000</v>
+        <v>526735000</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>13</v>
@@ -987,21 +996,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>45997.97122685185</v>
+        <v>45998.87241898148</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="4">
-        <v>904732500</v>
+        <v>752600000</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>13</v>
@@ -1015,18 +1024,18 @@
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>45997.96975694445</v>
+        <v>45998.87138888889</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="4">
-        <v>551775000</v>
+        <v>639922500</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>13</v>
@@ -1040,18 +1049,18 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>45996.96806712963</v>
+        <v>45997.97175925926</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="4">
-        <v>1082261250</v>
+        <v>759665000</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>13</v>
@@ -1068,15 +1077,15 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>45996.96755787037</v>
+        <v>45997.97122685185</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="4">
-        <v>546267500</v>
+        <v>904732500</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>13</v>
@@ -1090,18 +1099,18 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>45996.96703703704</v>
+        <v>45997.96975694445</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="4">
-        <v>1018893750</v>
+        <v>551775000</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>13</v>
@@ -1118,15 +1127,15 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>45995.88484953704</v>
+        <v>45996.96806712963</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="4">
-        <v>420210000</v>
+        <v>1082261250</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>13</v>
@@ -1140,18 +1149,18 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>45995.88417824074</v>
+        <v>45996.96755787037</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="4">
-        <v>904312500</v>
+        <v>546267500</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>13</v>
@@ -1165,18 +1174,18 @@
         <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>45995.88335648148</v>
+        <v>45996.96703703704</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="4">
-        <v>626582500</v>
+        <v>1018893750</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>13</v>
@@ -1190,18 +1199,18 @@
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>45995.88244212963</v>
+        <v>45995.88484953704</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="4">
-        <v>279772500</v>
+        <v>420210000</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>13</v>
@@ -1215,18 +1224,18 @@
         <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>45994.95673611111</v>
+        <v>45995.88417824074</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="4">
-        <v>955329375</v>
+        <v>904312500</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>13</v>
@@ -1240,18 +1249,18 @@
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>45994.95619212963</v>
+        <v>45995.88335648148</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="4">
-        <v>495125000</v>
+        <v>626582500</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>13</v>
@@ -1265,18 +1274,18 @@
         <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>45994.95559027778</v>
+        <v>45995.88244212963</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="4">
-        <v>527195000</v>
+        <v>279772500</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>13</v>
@@ -1290,18 +1299,18 @@
         <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3">
-        <v>45993.90181712963</v>
+        <v>45994.95673611111</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="4">
-        <v>1013922500</v>
+        <v>955329375</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>13</v>
@@ -1315,18 +1324,18 @@
         <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>45993.90112268519</v>
+        <v>45994.95619212963</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="4">
-        <v>796635000</v>
+        <v>495125000</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>13</v>
@@ -1340,18 +1349,18 @@
         <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>45993.90010416666</v>
+        <v>45994.95559027778</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="4">
-        <v>268275000</v>
+        <v>527195000</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>13</v>
@@ -1365,18 +1374,18 @@
         <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>45992.76358796296</v>
+        <v>45993.90181712963</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="4">
-        <v>467722500</v>
+        <v>1013922500</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>13</v>
@@ -1390,18 +1399,18 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>45992.76268518518</v>
+        <v>45993.90112268519</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="4">
-        <v>866017500</v>
+        <v>796635000</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>13</v>
@@ -1418,15 +1427,15 @@
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>45992.76179398148</v>
+        <v>45993.90010416666</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="4">
-        <v>377110000</v>
+        <v>268275000</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>13</v>
@@ -1440,18 +1449,18 @@
         <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>45992.41524305556</v>
+        <v>45992.76358796296</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="4">
-        <v>244329750</v>
+        <v>467722500</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>13</v>
@@ -1465,18 +1474,18 @@
         <v>52</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3">
-        <v>45992.41391203704</v>
+        <v>45992.76268518518</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="4">
-        <v>218473500</v>
+        <v>866017500</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>13</v>
@@ -1490,18 +1499,18 @@
         <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3">
-        <v>45992.36171296296</v>
+        <v>45992.76179398148</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="4">
-        <v>52500000</v>
+        <v>377110000</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>13</v>
@@ -1515,18 +1524,18 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>45992.35636574074</v>
+        <v>45992.41524305556</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="4">
-        <v>3822000</v>
+        <v>244329750</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>13</v>
@@ -1540,18 +1549,18 @@
         <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>45991.81752314815</v>
+        <v>45992.41391203704</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="4">
-        <v>685860000</v>
+        <v>218473500</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>13</v>
@@ -1565,18 +1574,18 @@
         <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>45991.81685185185</v>
+        <v>45992.36171296296</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="4">
-        <v>8251100</v>
+        <v>52500000</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>13</v>
@@ -1587,21 +1596,21 @@
         <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>45991.81594907407</v>
+        <v>45992.35636574074</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="4">
-        <v>578600000</v>
+        <v>3822000</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>13</v>
@@ -1612,21 +1621,21 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>45991.815</v>
+        <v>45991.81752314815</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="4">
-        <v>272947500</v>
+        <v>685860000</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>13</v>
@@ -1637,21 +1646,21 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3">
-        <v>45991.00469907407</v>
+        <v>45991.81685185185</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="4">
-        <v>92420000</v>
+        <v>8251100</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>13</v>
@@ -1668,15 +1677,15 @@
         <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>45991.00388888889</v>
+        <v>45991.81594907407</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="4">
-        <v>144477375</v>
+        <v>578600000</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>13</v>
@@ -1690,18 +1699,18 @@
         <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E43" s="3">
-        <v>45991.00296296296</v>
+        <v>45991.815</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="4">
-        <v>311634750</v>
+        <v>272947500</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>13</v>
@@ -1715,18 +1724,18 @@
         <v>63</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>45990.98430555555</v>
+        <v>45991.00469907407</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="4">
-        <v>528675000</v>
+        <v>92420000</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>13</v>
@@ -1740,18 +1749,18 @@
         <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>45990.98174768518</v>
+        <v>45991.00388888889</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="4">
-        <v>643545000</v>
+        <v>144477375</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>13</v>
@@ -1765,18 +1774,18 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
-        <v>45990.96184027778</v>
+        <v>45991.00296296296</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="4">
-        <v>527992500</v>
+        <v>311634750</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>13</v>
@@ -1790,20 +1799,18 @@
         <v>66</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E47" s="3">
-        <v>45990.96293981482</v>
+        <v>45990.98430555555</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="4">
-        <v>7875000</v>
+        <v>528675000</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>13</v>
@@ -1814,21 +1821,21 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
-        <v>45990.96106481482</v>
+        <v>45990.98174768518</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="4">
-        <v>110000</v>
+        <v>643545000</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>13</v>
@@ -1839,21 +1846,21 @@
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>45989.61359953704</v>
+        <v>45990.96184027778</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="4">
-        <v>326880750</v>
+        <v>527992500</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>13</v>
@@ -1864,21 +1871,23 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45990.96293981482</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45989.61253472222</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
       <c r="H50" s="4">
-        <v>325209200</v>
+        <v>7875000</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>13</v>
@@ -1892,18 +1901,18 @@
         <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
-        <v>45988.97096064815</v>
+        <v>45990.96106481482</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="4">
-        <v>238135550</v>
+        <v>110000</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>13</v>
@@ -1917,18 +1926,18 @@
         <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
-        <v>45988.97028935186</v>
+        <v>45989.61359953704</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="4">
-        <v>314136375</v>
+        <v>326880750</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>13</v>
@@ -1942,18 +1951,18 @@
         <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3">
-        <v>45988.96980324074</v>
+        <v>45989.61253472222</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="4">
-        <v>104076000</v>
+        <v>325209200</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>13</v>
@@ -1967,18 +1976,18 @@
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
-        <v>45985.45549768519</v>
+        <v>45988.97096064815</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="4">
-        <v>173261000</v>
+        <v>238135550</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>13</v>
@@ -1992,18 +2001,18 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3">
-        <v>45984.37081018519</v>
+        <v>45988.97028935186</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="4">
-        <v>160587000</v>
+        <v>314136375</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>13</v>
@@ -2017,18 +2026,18 @@
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E56" s="3">
-        <v>45986.79166666666</v>
+        <v>45988.96980324074</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="4">
-        <v>11000</v>
+        <v>104076000</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>13</v>
@@ -2039,21 +2048,21 @@
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
-        <v>45964.44783564815</v>
+        <v>45985.45549768519</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="4">
-        <v>7150000</v>
+        <v>173261000</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
@@ -2064,21 +2073,21 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
-        <v>45748.33396990741</v>
+        <v>45984.37081018519</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="4">
-        <v>145761000</v>
+        <v>160587000</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>13</v>
@@ -2089,21 +2098,21 @@
         <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3">
+        <v>45986.79166666666</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45778.33333333334</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
       <c r="H59" s="4">
-        <v>120792000</v>
+        <v>11000</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>13</v>
@@ -2117,18 +2126,18 @@
         <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3">
-        <v>45946.41202546296</v>
+        <v>45964.44783564815</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="4">
-        <v>18971700</v>
+        <v>7150000</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>13</v>
@@ -2139,23 +2148,98 @@
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3">
-        <v>45928.46234953704</v>
+        <v>45748.33396990741</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="4">
+        <v>145761000</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45778.33333333334</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="4">
+        <v>120792000</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45946.41202546296</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="4">
+        <v>18971700</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45928.46234953704</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="4">
         <v>21879000</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>13</v>
       </c>
     </row>
